--- a/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -23,6 +23,27 @@
   </si>
   <si>
     <t>even_MAG-GUT30639.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT47179.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT60365.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT61176.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT69384.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT76426.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83501.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT83507.fa</t>
   </si>
   <si>
     <t>1-s__Limosilactobacillus antri</t>
@@ -88,10 +109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="27" customWidth="true"/>
     <col min="3" max="3" width="33" customWidth="true"/>
     <col min="4" max="4" width="31" customWidth="true"/>
@@ -105,22 +126,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -169,6 +190,167 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.0054629536695357432</v>
+      </c>
+      <c r="C4">
+        <v>0.034950323832065276</v>
+      </c>
+      <c r="D4">
+        <v>0.15622676896392063</v>
+      </c>
+      <c r="E4">
+        <v>0.3388924029576636</v>
+      </c>
+      <c r="F4">
+        <v>0.46446755057681477</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.017693401844607458</v>
+      </c>
+      <c r="C5">
+        <v>0.046342751842182443</v>
+      </c>
+      <c r="D5">
+        <v>0.14278289195268426</v>
+      </c>
+      <c r="E5">
+        <v>0.29749271396434351</v>
+      </c>
+      <c r="F5">
+        <v>0.49568824039618237</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.025138231996335851</v>
+      </c>
+      <c r="C6">
+        <v>0.057672641162060119</v>
+      </c>
+      <c r="D6">
+        <v>0.14231791059088525</v>
+      </c>
+      <c r="E6">
+        <v>0.26196894358936001</v>
+      </c>
+      <c r="F6">
+        <v>0.51290227266135879</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.082789168626884818</v>
+      </c>
+      <c r="C7">
+        <v>0.024692089579634903</v>
+      </c>
+      <c r="D7">
+        <v>0.071098998747258738</v>
+      </c>
+      <c r="E7">
+        <v>0.53015461751385484</v>
+      </c>
+      <c r="F7">
+        <v>0.29126512553236655</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.012675262458504517</v>
+      </c>
+      <c r="C8">
+        <v>0.065418267967378901</v>
+      </c>
+      <c r="D8">
+        <v>0.2167577828666889</v>
+      </c>
+      <c r="E8">
+        <v>0.24109910604106483</v>
+      </c>
+      <c r="F8">
+        <v>0.46404958066636282</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.094324781847280201</v>
+      </c>
+      <c r="C9">
+        <v>0.049115396860189883</v>
+      </c>
+      <c r="D9">
+        <v>0.092823955111380571</v>
+      </c>
+      <c r="E9">
+        <v>0.26397712233146464</v>
+      </c>
+      <c r="F9">
+        <v>0.49975874384968466</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.016053070947486321</v>
+      </c>
+      <c r="C10">
+        <v>0.05379831524397638</v>
+      </c>
+      <c r="D10">
+        <v>0.17230350006296033</v>
+      </c>
+      <c r="E10">
+        <v>0.2934853309602789</v>
+      </c>
+      <c r="F10">
+        <v>0.46435978278529816</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Row</t>
   </si>
@@ -82,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,14 +92,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,30 +126,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -168,7 +172,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -191,7 +195,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -214,7 +218,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -237,7 +241,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -260,7 +264,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -283,7 +287,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -306,7 +310,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -329,7 +333,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">

--- a/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Limosilactobacillus_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>even_MAG-GUT76426.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80232.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT83501.fa</t>
@@ -112,7 +115,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -129,22 +132,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -336,22 +339,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.094324781847280201</v>
+        <v>0.044428198851350797</v>
       </c>
       <c r="C10">
-        <v>0.049115396860189883</v>
+        <v>0.78015107032523179</v>
       </c>
       <c r="D10">
-        <v>0.092823955111380571</v>
+        <v>0.0052944776320542454</v>
       </c>
       <c r="E10">
-        <v>0.26397712233146464</v>
+        <v>0.0012077840269634009</v>
       </c>
       <c r="F10">
-        <v>0.49975874384968466</v>
+        <v>0.1689184691643997</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -359,21 +362,44 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <v>0.094324781847280201</v>
+      </c>
+      <c r="C11">
+        <v>0.049115396860189883</v>
+      </c>
+      <c r="D11">
+        <v>0.092823955111380571</v>
+      </c>
+      <c r="E11">
+        <v>0.26397712233146464</v>
+      </c>
+      <c r="F11">
+        <v>0.49975874384968466</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0.016053070947486321</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.05379831524397638</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.17230350006296033</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.2934853309602789</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.46435978278529816</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>5</v>
       </c>
     </row>
